--- a/biology/Botanique/Jean_Henri_Jaume_Saint-Hilaire/Jean_Henri_Jaume_Saint-Hilaire.xlsx
+++ b/biology/Botanique/Jean_Henri_Jaume_Saint-Hilaire/Jean_Henri_Jaume_Saint-Hilaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Henri Jaume Saint-Hilaire est un naturaliste et un artiste français, né le 29 octobre 1772 à Grasse et mort en 1845 à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né sous le nom de Jaume, il ajoute Saint-Hilaire plus tard. Certains biographes écriront que c’est pour le distinguer d’un membre de sa famille, Henri-Honoré Jaume, jacobin, qui avait fait régner la terreur. Il sert dans l’armée française durant la campagne d’Italie avant de revenir à la vie civile en 1800. Il vient alors à Paris reprendre des études, notamment en histoire naturelle. Il écrit un guide sur le nouveau Muséum national d'histoire naturelle et apprend la peinture florale auprès de Gérard van Spaendonck (1746-1822).
 Il fait paraître, en 1805, sa première publication importante, une Exposition des familles naturelles et de la germination des plantes, contentant la description de 2 337 genres et d'environ 4 000 espèces, 112 planches dont les figures ont été dessinées par l'auteur. Il y vulgarise la classification d’Antoine-Laurent de Jussieu (1748-1836). De 1808 à 1809 puis de 1819 à 1822, il fait paraître les dix volumes des Plantes de la France décrites et peintes d’après nature regroupant un millier de gravures, par lui-même.
@@ -544,10 +558,12 @@
           <t>Liste partielle de ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Exposition des familles naturelles et de la germination des plantes, contentant la description de 2 337 genres et d'environ 4 000 espèces, 112 planches dont les figures ont été dessinées par l'auteur, 1805
-Plantes de la France décrites et peintes d’après nature, 1808-1822, 10 vol.   [1]
+Plantes de la France décrites et peintes d’après nature, 1808-1822, 10 vol.   
 Traité des arbres forestiers : ou histoire et description des arbres indigènes ou naturalisés... Ouvrage précédé d'une instruction sur la culture des arbres, par M. Thouin..., Paris : Imprimerie de Firmin Didot, 1824
 Traité des arbrisseaux et des arbustes cultivés en France et en pleine terre, Paris : chez l'auteur, 1825
 La flore et la pomone françaises : histoire et figure en couleur, des fleurs et des fruits de France ou naturalisés sur le sol français, Paris : chez l'auteur (rue Furstemberg), 1828-1833
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Roger L. Williams (1988), Gerard and Jaume: Two Neglected Figures in the History of Jussiaean Classification (Part Three). Taxon, Vol. 37 (2, May, 1988) : 233-271.</t>
         </is>
